--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54090DC1-10C7-4D2C-A880-2504B4571E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F92B52-2806-4CBC-9983-8135F1CF2FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4296" yWindow="3396" windowWidth="21888" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28320" yWindow="7860" windowWidth="21885" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +768,7 @@
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F92B52-2806-4CBC-9983-8135F1CF2FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F148867E-B7AF-4528-9796-0BF24B18C5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28320" yWindow="7860" windowWidth="21885" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,7 +777,7 @@
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -786,7 +786,7 @@
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F148867E-B7AF-4528-9796-0BF24B18C5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E781A4E0-B8C0-4F34-98FB-0FE1CD408D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28320" yWindow="7860" windowWidth="21885" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Number</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Room and bottom-half reinforcements not implemented</t>
+  </si>
+  <si>
+    <t>Tents ambush not implemented, unclear how it works in fe6 (wiki wrong?)</t>
   </si>
 </sst>
 </file>
@@ -491,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,7 +505,7 @@
     <col min="4" max="4" width="13.21875" customWidth="1"/>
     <col min="5" max="5" width="19.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="61.6640625" customWidth="1"/>
+    <col min="7" max="7" width="63.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
@@ -795,7 +798,7 @@
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -804,7 +807,7 @@
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -813,16 +816,19 @@
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E781A4E0-B8C0-4F34-98FB-0FE1CD408D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48467D3-E963-4555-BFBD-F327251DDD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4164" yWindow="2520" windowWidth="21888" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="B2:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G41"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,7 +837,7 @@
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -846,7 +846,7 @@
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48467D3-E963-4555-BFBD-F327251DDD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0225B0AD-D900-49F3-B60B-8ED198A3AA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4164" yWindow="2520" windowWidth="21888" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4512" yWindow="2868" windowWidth="21888" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Number</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Clarine needs "Talk to Roy AI"</t>
-  </si>
-  <si>
-    <t>Flame traps not implemented</t>
   </si>
   <si>
     <t>Water events not implemented</t>
@@ -495,7 +492,7 @@
   <dimension ref="B2:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,13 +507,13 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -524,16 +521,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -596,7 +593,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -625,9 +622,6 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
@@ -692,7 +686,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -722,7 +716,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
@@ -743,7 +737,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -755,7 +749,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
@@ -821,7 +815,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
@@ -855,7 +849,7 @@
       <c r="B36" s="1">
         <v>21</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0225B0AD-D900-49F3-B60B-8ED198A3AA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460BCF57-A13C-4B85-8DA1-5099CFE761F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4512" yWindow="2868" windowWidth="21888" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4164" yWindow="2520" windowWidth="25824" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>Fadeins etc</t>
   </si>
   <si>
-    <t>Poison traps not implemented</t>
-  </si>
-  <si>
     <t>Hugh recruitment not implemented, route determination not implemented</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>Tents ambush not implemented, unclear how it works in fe6 (wiki wrong?)</t>
+  </si>
+  <si>
+    <t>Chest and the other traps not implemented, seems like it's gonna be tricky with them</t>
   </si>
 </sst>
 </file>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,7 +502,7 @@
     <col min="4" max="4" width="13.21875" customWidth="1"/>
     <col min="5" max="5" width="19.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="63.109375" customWidth="1"/>
+    <col min="7" max="7" width="71.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
@@ -593,7 +593,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -685,9 +685,6 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
@@ -737,7 +734,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -749,7 +746,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
@@ -815,10 +812,10 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
@@ -827,7 +824,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
@@ -836,7 +833,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
@@ -845,7 +842,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>21</v>
       </c>
@@ -854,16 +851,19 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>22</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>23</v>
       </c>
@@ -881,7 +881,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>24</v>
       </c>
@@ -890,7 +890,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>20</v>
       </c>

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460BCF57-A13C-4B85-8DA1-5099CFE761F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFBDD81-9162-4D89-92D3-8B7DA0C45373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4164" yWindow="2520" windowWidth="25824" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-456" yWindow="5196" windowWidth="25824" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Number</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Chest and the other traps not implemented, seems like it's gonna be tricky with them</t>
+  </si>
+  <si>
+    <t>Epilogue, leg weapons check not implemented</t>
   </si>
 </sst>
 </file>
@@ -491,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,16 +870,19 @@
       <c r="B38" s="1">
         <v>22</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>23</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFBDD81-9162-4D89-92D3-8B7DA0C45373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BACD7B-319E-4EDD-BE0F-B6662311A288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-456" yWindow="5196" windowWidth="25824" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-456" yWindow="5184" windowWidth="25824" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>Fadeins etc</t>
   </si>
   <si>
-    <t>Hugh recruitment not implemented, route determination not implemented</t>
-  </si>
-  <si>
     <t>Arrows not implemented, route determination not implemented</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Epilogue, leg weapons check not implemented</t>
+  </si>
+  <si>
+    <t>Route determination not implemented</t>
   </si>
 </sst>
 </file>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,7 +596,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -737,7 +737,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -749,7 +749,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
@@ -815,7 +815,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
@@ -863,7 +863,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
@@ -875,7 +875,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BACD7B-319E-4EDD-BE0F-B6662311A288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD29072-1BA6-40E4-98D9-2E33E634D3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-456" yWindow="5184" windowWidth="25824" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5112" yWindow="3960" windowWidth="25824" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Number</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Fadeins etc</t>
   </si>
   <si>
-    <t>Arrows not implemented, route determination not implemented</t>
-  </si>
-  <si>
     <t>Room and bottom-half reinforcements not implemented</t>
   </si>
   <si>
@@ -135,7 +132,7 @@
     <t>Epilogue, leg weapons check not implemented</t>
   </si>
   <si>
-    <t>Route determination not implemented</t>
+    <t>Arrows not implemented</t>
   </si>
 </sst>
 </file>
@@ -494,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,7 +593,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -736,9 +733,6 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
@@ -749,7 +743,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
@@ -815,7 +809,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
@@ -863,7 +857,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
@@ -875,7 +869,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD29072-1BA6-40E4-98D9-2E33E634D3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FF872D-CCA5-4E8A-967C-B249CC3F4545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="3960" windowWidth="25824" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11748" yWindow="4896" windowWidth="16788" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Number</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Clarine needs "Talk to Roy AI"</t>
-  </si>
-  <si>
-    <t>Water events not implemented</t>
   </si>
   <si>
     <t>Completable?</t>
@@ -491,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,13 +504,13 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -521,16 +518,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -593,7 +590,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -712,9 +709,6 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
@@ -743,7 +737,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
@@ -809,7 +803,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
@@ -857,7 +851,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
@@ -869,7 +863,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FF872D-CCA5-4E8A-967C-B249CC3F4545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1093BD-B6B1-4035-8503-8228C41B4586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11748" yWindow="4896" windowWidth="16788" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20880" yWindow="7845" windowWidth="16785" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Number</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Fadeins etc</t>
-  </si>
-  <si>
-    <t>Room and bottom-half reinforcements not implemented</t>
   </si>
   <si>
     <t>Tents ambush not implemented, unclear how it works in fe6 (wiki wrong?)</t>
@@ -488,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,9 +586,6 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -737,7 +731,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
@@ -803,7 +797,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
@@ -851,7 +845,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
@@ -863,7 +857,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1093BD-B6B1-4035-8503-8228C41B4586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F48E7D-160A-48D1-86E4-427471A89282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20880" yWindow="7845" windowWidth="16785" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Number</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Extra notes</t>
   </si>
   <si>
-    <t>Clarine needs "Talk to Roy AI"</t>
-  </si>
-  <si>
     <t>Completable?</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
   </si>
   <si>
     <t>Fadeins etc</t>
-  </si>
-  <si>
-    <t>Tents ambush not implemented, unclear how it works in fe6 (wiki wrong?)</t>
   </si>
   <si>
     <t>Chest and the other traps not implemented, seems like it's gonna be tricky with them</t>
@@ -485,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,13 +495,13 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -515,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -565,9 +559,6 @@
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
@@ -731,7 +722,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
@@ -796,9 +787,6 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
@@ -845,7 +833,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
@@ -857,7 +845,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F48E7D-160A-48D1-86E4-427471A89282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AA2CA1-A6E2-46CC-B7A1-D705BA6D93A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18780" yWindow="6090" windowWidth="18645" windowHeight="10455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,10 +117,10 @@
     <t>Chest and the other traps not implemented, seems like it's gonna be tricky with them</t>
   </si>
   <si>
-    <t>Epilogue, leg weapons check not implemented</t>
-  </si>
-  <si>
     <t>Arrows not implemented</t>
+  </si>
+  <si>
+    <t>Epilogue not implemented</t>
   </si>
 </sst>
 </file>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +530,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -548,7 +548,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -557,7 +557,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -566,7 +566,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -574,8 +574,8 @@
         <v>6</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -583,8 +583,8 @@
         <v>7</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -592,8 +592,8 @@
         <v>8</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -601,8 +601,8 @@
         <v>1</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -610,8 +610,8 @@
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -722,7 +722,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
@@ -845,7 +845,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
@@ -861,7 +861,7 @@
       <c r="B40" s="1">
         <v>24</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="3"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AA2CA1-A6E2-46CC-B7A1-D705BA6D93A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0886655-415D-49F1-82A4-E688FEDCDEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18780" yWindow="6090" windowWidth="18645" windowHeight="10455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22875" yWindow="8340" windowWidth="18645" windowHeight="10455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,8 +619,8 @@
         <v>2</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -628,8 +628,8 @@
         <v>3</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -637,8 +637,8 @@
         <v>4</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -646,8 +646,8 @@
         <v>5</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -655,8 +655,8 @@
         <v>12</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -664,8 +664,8 @@
         <v>6</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0886655-415D-49F1-82A4-E688FEDCDEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA643DD0-64E4-467D-AF18-C80BB2E9F8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22875" yWindow="8340" windowWidth="18645" windowHeight="10455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Number</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Epilogue not implemented</t>
+  </si>
+  <si>
+    <t>check bartre route events</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +163,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,12 +200,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,7 +666,9 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA643DD0-64E4-467D-AF18-C80BB2E9F8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD3D48E-35B9-482A-9D0F-5AC7B7BAEFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22875" yWindow="8340" windowWidth="18645" windowHeight="10455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Number</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Epilogue not implemented</t>
-  </si>
-  <si>
-    <t>check bartre route events</t>
   </si>
 </sst>
 </file>
@@ -147,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,12 +160,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,13 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +480,7 @@
   <dimension ref="B2:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,9 +656,7 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -685,8 +673,8 @@
         <v>13</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -694,8 +682,8 @@
         <v>14</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -703,8 +691,8 @@
         <v>7</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
@@ -712,8 +700,8 @@
         <v>15</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
@@ -721,8 +709,8 @@
         <v>16</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -730,8 +718,8 @@
         <v>8</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="4"/>
       <c r="G25" t="s">
         <v>30</v>

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD3D48E-35B9-482A-9D0F-5AC7B7BAEFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318BEA4F-5E05-4AC2-9CBB-23D1B7EA8FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="3648" windowWidth="26796" windowHeight="13416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="B2:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D28" sqref="D28:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,8 +730,8 @@
         <v>9</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
@@ -739,8 +739,8 @@
         <v>10</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
@@ -748,8 +748,8 @@
         <v>11</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
@@ -757,8 +757,8 @@
         <v>12</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
@@ -766,8 +766,8 @@
         <v>13</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">

--- a/Chapter progress.xlsx
+++ b/Chapter progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE6inFE8\FE6-in-FE8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318BEA4F-5E05-4AC2-9CBB-23D1B7EA8FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A7267D-BF35-44F7-A407-18E5091FB855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="3648" windowWidth="26796" windowHeight="13416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7836" yWindow="4872" windowWidth="19224" windowHeight="12408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Number</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Completable?</t>
   </si>
   <si>
-    <t>Polish</t>
-  </si>
-  <si>
     <t>Basic testing</t>
   </si>
   <si>
@@ -111,16 +108,16 @@
     <t>Proper testing</t>
   </si>
   <si>
-    <t>Fadeins etc</t>
-  </si>
-  <si>
     <t>Chest and the other traps not implemented, seems like it's gonna be tricky with them</t>
   </si>
   <si>
-    <t>Arrows not implemented</t>
-  </si>
-  <si>
     <t>Epilogue not implemented</t>
+  </si>
+  <si>
+    <t>Arrows, parallax not implemented</t>
+  </si>
+  <si>
+    <t>Trap chance might need tweaking</t>
   </si>
 </sst>
 </file>
@@ -477,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G41"/>
+  <dimension ref="B2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,391 +486,350 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="13.21875" customWidth="1"/>
     <col min="5" max="5" width="19.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="71.109375" customWidth="1"/>
+    <col min="6" max="6" width="46.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>12</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>13</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>14</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>15</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>16</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>21</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>22</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>23</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>24</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
